--- a/Doc/Planning.xlsx
+++ b/Doc/Planning.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -603,9 +603,6 @@
     <t>25 effective hours</t>
   </si>
   <si>
-    <t>Daily 1 niharika,2 page novel,1 hr speak,at sat 1 moovie</t>
-  </si>
-  <si>
     <t>At ofc try to read 30 min, at home   implement it for 1 hr</t>
   </si>
   <si>
@@ -640,9 +637,6 @@
   </si>
   <si>
     <t>30 mins</t>
-  </si>
-  <si>
-    <t>1hr speak, 15min novel</t>
   </si>
   <si>
     <r>
@@ -722,6 +716,50 @@
   <si>
     <t>5h</t>
   </si>
+  <si>
+    <t>Daily 1 niharika,  2 page novel,1 hr speak,at sat 1 moovie</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1hr speak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15min novel</t>
+    </r>
+  </si>
+  <si>
+    <t>1h.Cj(M)</t>
+  </si>
+  <si>
+    <t>StringTokeniser</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +787,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -891,12 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -921,19 +974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -954,6 +995,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3796,7 +3862,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="38">
         <v>41841</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3810,7 +3876,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
@@ -3828,7 +3894,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="39">
         <v>41842</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3836,7 +3902,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
@@ -3882,12 +3948,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="39">
         <v>41847</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="39"/>
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -3896,7 +3962,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="39">
         <v>41848</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3904,7 +3970,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4333,8 +4399,8 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,315 +4416,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="B15" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="B17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="E17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D20" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -4666,23 +4738,23 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4690,27 +4762,27 @@
         <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4752,20 +4824,18 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+    <row r="27" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -4775,9 +4845,11 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/Planning.xlsx
+++ b/Doc/Planning.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="220">
   <si>
     <t>Date</t>
   </si>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>Webnservices</t>
-  </si>
-  <si>
-    <t>45mins</t>
   </si>
   <si>
     <t>30mins</t>
@@ -758,7 +755,19 @@
     <t>StringTokeniser</t>
   </si>
   <si>
-    <t>1h</t>
+    <t>45+15m</t>
+  </si>
+  <si>
+    <t>45-14mins</t>
+  </si>
+  <si>
+    <t>0.30.Sp(M)</t>
+  </si>
+  <si>
+    <t>RowMapper</t>
+  </si>
+  <si>
+    <t>5.5 h</t>
   </si>
 </sst>
 </file>
@@ -900,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -995,10 +1004,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1007,19 +1026,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3862,7 +3875,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="41">
         <v>41841</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3876,7 +3889,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
@@ -3894,7 +3907,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="42">
         <v>41842</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3902,7 +3915,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
@@ -3948,12 +3961,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="42">
         <v>41847</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="42"/>
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -3962,7 +3975,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="42">
         <v>41848</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3970,7 +3983,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4400,7 +4413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,102 +4455,108 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>211</v>
+      <c r="H2" s="40" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="29"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="F5" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="30"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4546,48 +4565,48 @@
       <c r="D8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>212</v>
+      <c r="E8" s="44" t="s">
+        <v>211</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="29" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="35" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="46" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="35" t="s">
         <v>173</v>
       </c>
@@ -4600,10 +4619,10 @@
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="46" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -4612,7 +4631,7 @@
       <c r="D12" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="45" t="s">
         <v>195</v>
       </c>
       <c r="F12" s="30"/>
@@ -4620,34 +4639,34 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="34" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -4656,7 +4675,7 @@
       <c r="D15" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="44" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="29"/>
@@ -4664,15 +4683,15 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -4740,21 +4759,21 @@
       <c r="A21" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4762,22 +4781,22 @@
         <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,6 +4852,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4845,11 +4869,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/Planning.xlsx
+++ b/Doc/Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="3" activeTab="7"/>
@@ -17,12 +17,12 @@
     <sheet name="2016  PREPARATION PLANNING" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -680,28 +680,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 hr speak ofc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15 min hiharika 1 video</t>
-    </r>
-  </si>
-  <si>
     <t>1 hr at home</t>
   </si>
   <si>
@@ -715,6 +693,18 @@
   </si>
   <si>
     <t>Daily 1 niharika,  2 page novel,1 hr speak,at sat 1 moovie</t>
+  </si>
+  <si>
+    <t>45+15m</t>
+  </si>
+  <si>
+    <t>RowMapper</t>
+  </si>
+  <si>
+    <t>5.5 h</t>
+  </si>
+  <si>
+    <t>45-15mins</t>
   </si>
   <si>
     <r>
@@ -740,7 +730,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -749,35 +739,51 @@
     </r>
   </si>
   <si>
-    <t>1h.Cj(M)</t>
-  </si>
-  <si>
-    <t>StringTokeniser</t>
-  </si>
-  <si>
-    <t>45+15m</t>
-  </si>
-  <si>
-    <t>45-14mins</t>
-  </si>
-  <si>
-    <t>0.30.Sp(M)</t>
-  </si>
-  <si>
-    <t>RowMapper</t>
-  </si>
-  <si>
-    <t>5.5 h</t>
+    <t>23.5 remaining</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hr speak ofc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30 min hiharika 1 video</t>
+    </r>
+  </si>
+  <si>
+    <t>1h.Cj(M),0.5.Cj(T)</t>
+  </si>
+  <si>
+    <t>StringTokeniser,Exception Handling throws and throw</t>
+  </si>
+  <si>
+    <t>4.5h</t>
+  </si>
+  <si>
+    <t>0.50.Sp(M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +823,13 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -909,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,13 +1024,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1026,13 +1040,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1128,7 +1144,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1163,7 +1178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1339,21 +1353,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1387,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>41776</v>
       </c>
@@ -1393,7 +1407,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>41776</v>
       </c>
@@ -1413,7 +1427,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>41776</v>
       </c>
@@ -1433,7 +1447,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>41776</v>
       </c>
@@ -1453,7 +1467,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>41776</v>
       </c>
@@ -1473,7 +1487,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>41776</v>
       </c>
@@ -1493,7 +1507,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>41776</v>
       </c>
@@ -1513,7 +1527,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>41776</v>
       </c>
@@ -1533,7 +1547,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>41776</v>
       </c>
@@ -1553,7 +1567,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>41776</v>
       </c>
@@ -1573,7 +1587,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="3">
         <v>41776</v>
       </c>
@@ -1593,7 +1607,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>41776</v>
       </c>
@@ -1613,7 +1627,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30">
       <c r="A14" s="3">
         <v>41776</v>
       </c>
@@ -1633,7 +1647,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>41776</v>
       </c>
@@ -1653,7 +1667,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>41776</v>
       </c>
@@ -1671,7 +1685,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>41776</v>
       </c>
@@ -1689,7 +1703,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1705,7 +1719,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1721,7 +1735,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1737,7 +1751,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1753,7 +1767,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1769,7 +1783,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1785,7 +1799,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1801,7 +1815,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1817,7 +1831,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1833,7 +1847,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1856,20 +1870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>41778</v>
       </c>
@@ -1885,7 +1899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>41778</v>
       </c>
@@ -1893,7 +1907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>41778</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>41778</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>41778</v>
       </c>
@@ -1917,13 +1931,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>41778</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3">
         <v>41778</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="3">
         <v>41778</v>
       </c>
@@ -1939,7 +1953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>41778</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="3">
         <v>41778</v>
       </c>
@@ -1955,7 +1969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="3">
         <v>41778</v>
       </c>
@@ -1963,7 +1977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>41778</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="3">
         <v>41778</v>
       </c>
@@ -1979,7 +1993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>41778</v>
       </c>
@@ -1987,7 +2001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>41778</v>
       </c>
@@ -1995,7 +2009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>41778</v>
       </c>
@@ -2003,7 +2017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -2012,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,7 +2034,7 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="A9:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2028,7 +2042,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2103,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="38.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2131,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="60">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2145,7 +2159,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="31.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2187,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="60">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2215,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2243,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="60">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2271,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +2299,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="30">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2327,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="30">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2355,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="30">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2383,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="60">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2411,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="30">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2439,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="60">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2467,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="60">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2495,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2503,7 +2517,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2525,7 +2539,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2547,7 +2561,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2569,7 +2583,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2591,7 +2605,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2613,7 +2627,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2635,7 +2649,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2657,7 +2671,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2679,7 +2693,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2701,37 +2715,37 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -2741,14 +2755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -2756,7 +2770,7 @@
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2789,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="30.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2813,7 +2827,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:32" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="41.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2865,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="42" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2905,7 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:32" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="49.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2931,7 +2945,7 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="32.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +2985,7 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="38.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3027,7 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3053,7 +3067,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="21" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3093,7 +3107,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="33" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3135,7 +3149,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +3189,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="39.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3217,7 +3231,7 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="37.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3269,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="48.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3293,7 +3307,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="36" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +3345,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3360,7 +3374,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:30">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3389,7 +3403,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:30">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3418,7 +3432,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:30">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3447,7 +3461,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:30">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3476,7 +3490,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:30">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3505,7 +3519,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:30">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3541,14 +3555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -3558,7 +3572,7 @@
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3581,7 +3595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="35.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3614,7 +3628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3661,7 +3675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3716,7 +3730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3754,14 +3768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -3769,12 +3783,12 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="240">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
         <v>78</v>
@@ -3793,7 +3807,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
         <v>79</v>
@@ -3812,7 +3826,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
@@ -3831,7 +3845,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>81</v>
@@ -3850,7 +3864,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
         <v>82</v>
@@ -3869,13 +3883,13 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+    <row r="8" spans="1:13" ht="35.25" customHeight="1">
+      <c r="A8" s="43">
         <v>41841</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3888,8 +3902,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:13" ht="60">
+      <c r="A9" s="43"/>
       <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
@@ -3900,27 +3914,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+    <row r="11" spans="1:13">
+      <c r="A11" s="44">
         <v>41842</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="44"/>
       <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="45">
       <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
@@ -3928,17 +3942,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="B15" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60">
       <c r="B16" s="12" t="s">
         <v>99</v>
       </c>
@@ -3949,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
         <v>101</v>
       </c>
@@ -3960,13 +3974,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+    <row r="19" spans="1:4">
+      <c r="A19" s="44">
         <v>41847</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:4" ht="60">
+      <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -3974,16 +3988,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+    <row r="22" spans="1:4" ht="60">
+      <c r="A22" s="44">
         <v>41848</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4004,20 +4018,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="91.140625" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
@@ -4025,7 +4039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="18.75" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>106</v>
       </c>
@@ -4033,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="26.25" customHeight="1">
       <c r="B4" s="15" t="s">
         <v>107</v>
       </c>
@@ -4041,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="26.25" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>108</v>
       </c>
@@ -4049,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="20.25" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>109</v>
       </c>
@@ -4057,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="22.5" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>110</v>
       </c>
@@ -4065,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="30.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
@@ -4073,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="24.75" customHeight="1">
       <c r="B9" s="15" t="s">
         <v>112</v>
       </c>
@@ -4081,27 +4095,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="35.25" hidden="1" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="23.25" hidden="1" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="26.25" hidden="1" customHeight="1">
       <c r="B12" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" hidden="1">
       <c r="B13" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="15" t="s">
         <v>117</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="19.5" customHeight="1">
       <c r="B15" s="15" t="s">
         <v>118</v>
       </c>
@@ -4117,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="21.75" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>119</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="28.5" customHeight="1">
       <c r="B17" s="15" t="s">
         <v>120</v>
       </c>
@@ -4133,32 +4147,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="16.5" hidden="1" customHeight="1">
       <c r="B18" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="16.5" hidden="1" customHeight="1">
       <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="26.25" hidden="1" customHeight="1">
       <c r="B20" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="22.5" hidden="1" customHeight="1">
       <c r="B21" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" hidden="1">
       <c r="B22" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="42.75" customHeight="1">
       <c r="B23" s="15" t="s">
         <v>126</v>
       </c>
@@ -4166,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="39" customHeight="1">
       <c r="B24" s="15" t="s">
         <v>127</v>
       </c>
@@ -4174,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="21" customHeight="1">
       <c r="B25" s="15" t="s">
         <v>128</v>
       </c>
@@ -4182,17 +4196,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="32.25" hidden="1" customHeight="1">
       <c r="B26" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" hidden="1">
       <c r="B27" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="15" t="s">
         <v>131</v>
       </c>
@@ -4200,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="27.75" customHeight="1">
       <c r="B29" s="15" t="s">
         <v>132</v>
       </c>
@@ -4208,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="27" customHeight="1">
       <c r="B30" s="15" t="s">
         <v>133</v>
       </c>
@@ -4216,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="20.25" customHeight="1">
       <c r="B31" s="15" t="s">
         <v>134</v>
       </c>
@@ -4224,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="23.25" customHeight="1">
       <c r="B32" s="15" t="s">
         <v>135</v>
       </c>
@@ -4232,7 +4246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="29.25" customHeight="1">
       <c r="B33" s="15" t="s">
         <v>136</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="24.75" customHeight="1">
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
@@ -4248,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="29.25" customHeight="1">
       <c r="B35" s="15" t="s">
         <v>138</v>
       </c>
@@ -4256,7 +4270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
@@ -4264,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="22.5" customHeight="1">
       <c r="B37" s="15" t="s">
         <v>140</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="15" t="s">
         <v>141</v>
       </c>
@@ -4280,7 +4294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="16" t="s">
         <v>144</v>
       </c>
@@ -4288,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="16" t="s">
         <v>145</v>
       </c>
@@ -4296,7 +4310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="16" t="s">
         <v>146</v>
       </c>
@@ -4304,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="16" t="s">
         <v>147</v>
       </c>
@@ -4312,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="16" t="s">
         <v>148</v>
       </c>
@@ -4320,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="16" t="s">
         <v>149</v>
       </c>
@@ -4328,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="16" t="s">
         <v>150</v>
       </c>
@@ -4336,7 +4350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="16" t="s">
         <v>151</v>
       </c>
@@ -4344,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="16" t="s">
         <v>152</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="16" t="s">
         <v>153</v>
       </c>
@@ -4360,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="16"/>
     </row>
   </sheetData>
@@ -4408,15 +4422,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -4428,7 +4442,7 @@
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -4454,109 +4468,109 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>214</v>
+      <c r="F2" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="43"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="46" t="s">
         <v>193</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+        <v>212</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="30"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="45"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4565,48 +4579,48 @@
       <c r="D8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>211</v>
+      <c r="E8" s="45" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="29" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="43"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="45"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="35" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="43"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="35" t="s">
         <v>173</v>
       </c>
@@ -4618,11 +4632,11 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -4631,42 +4645,42 @@
       <c r="D12" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>195</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
+    <row r="13" spans="1:8" ht="60" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="34" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -4675,28 +4689,28 @@
       <c r="D15" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="43"/>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>191</v>
       </c>
@@ -4716,23 +4730,25 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="25" customFormat="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="25" customFormat="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="27" t="s">
         <v>200</v>
       </c>
@@ -4755,28 +4771,28 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>203</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -4790,16 +4806,16 @@
         <v>204</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>208</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -4810,7 +4826,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -4821,7 +4837,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -4832,7 +4848,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -4843,7 +4859,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="25" customFormat="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -4852,11 +4868,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4869,6 +4880,11 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4876,12 +4892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/Planning.xlsx
+++ b/Doc/Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="3" activeTab="7"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -634,59 +634,6 @@
   </si>
   <si>
     <t>30 mins</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30min ofc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,30min home</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30min ofc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1hr home</t>
-    </r>
-  </si>
-  <si>
-    <t>1 hr at home</t>
-  </si>
-  <si>
-    <t>30 min at ofc</t>
-  </si>
-  <si>
-    <t>1h.SpEng( M)</t>
   </si>
   <si>
     <t>5h</t>
@@ -742,6 +689,42 @@
     <t>23.5 remaining</t>
   </si>
   <si>
+    <t>4.5h</t>
+  </si>
+  <si>
+    <t>0.50.Sp(M)</t>
+  </si>
+  <si>
+    <t>1h.Cj(M),0.5.Cj(T),1h.Cj.(T)</t>
+  </si>
+  <si>
+    <t>3.5h</t>
+  </si>
+  <si>
+    <t>0.5h Nh(T)</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>0.25 h.Hb.(T)</t>
+  </si>
+  <si>
+    <t>2.75h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>1h.SpEng( M),0.5h.SpEng(T)</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>StringTokeniser,Exception Handling throws and throw,Inner Classes</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -750,7 +733,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hr speak ofc</t>
+      <t>30min ofc</t>
     </r>
     <r>
       <rPr>
@@ -760,30 +743,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,30 min hiharika 1 video</t>
+      <t>,1h home</t>
     </r>
   </si>
   <si>
-    <t>1h.Cj(M),0.5.Cj(T)</t>
-  </si>
-  <si>
-    <t>StringTokeniser,Exception Handling throws and throw</t>
-  </si>
-  <si>
-    <t>4.5h</t>
-  </si>
-  <si>
-    <t>0.50.Sp(M)</t>
+    <t>15min ofc</t>
+  </si>
+  <si>
+    <t>0.5 h eng sp. 30min niharika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,21 +994,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1040,13 +1019,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,6 +1126,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1178,6 +1161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1353,21 +1337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1371,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41776</v>
       </c>
@@ -1407,7 +1391,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41776</v>
       </c>
@@ -1427,7 +1411,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41776</v>
       </c>
@@ -1447,7 +1431,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41776</v>
       </c>
@@ -1467,7 +1451,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41776</v>
       </c>
@@ -1487,7 +1471,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41776</v>
       </c>
@@ -1507,7 +1491,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41776</v>
       </c>
@@ -1527,7 +1511,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41776</v>
       </c>
@@ -1547,7 +1531,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41776</v>
       </c>
@@ -1567,7 +1551,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41776</v>
       </c>
@@ -1587,7 +1571,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="30">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41776</v>
       </c>
@@ -1607,7 +1591,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41776</v>
       </c>
@@ -1627,7 +1611,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41776</v>
       </c>
@@ -1647,7 +1631,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41776</v>
       </c>
@@ -1667,7 +1651,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41776</v>
       </c>
@@ -1685,7 +1669,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41776</v>
       </c>
@@ -1703,7 +1687,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1719,7 +1703,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1735,7 +1719,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1751,7 +1735,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1767,7 +1751,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1783,7 +1767,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1799,7 +1783,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1815,7 +1799,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1831,7 +1815,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1847,7 +1831,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1870,20 +1854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41778</v>
       </c>
@@ -1899,7 +1883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41778</v>
       </c>
@@ -1907,7 +1891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41778</v>
       </c>
@@ -1915,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41778</v>
       </c>
@@ -1923,7 +1907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41778</v>
       </c>
@@ -1931,13 +1915,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41778</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41778</v>
       </c>
@@ -1945,7 +1929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41778</v>
       </c>
@@ -1953,7 +1937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41778</v>
       </c>
@@ -1961,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41778</v>
       </c>
@@ -1969,7 +1953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41778</v>
       </c>
@@ -1977,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41778</v>
       </c>
@@ -1985,7 +1969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41778</v>
       </c>
@@ -1993,7 +1977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41778</v>
       </c>
@@ -2001,7 +1985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41778</v>
       </c>
@@ -2009,7 +1993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41778</v>
       </c>
@@ -2017,7 +2001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -2026,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,7 +2018,7 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="A9:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2042,7 +2026,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2103,7 +2087,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="38.25" customHeight="1">
+    <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2115,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="60">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2143,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" customHeight="1">
+    <row r="4" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2171,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="60">
+    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2199,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2227,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="60">
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2255,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +2283,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2327,7 +2311,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30">
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2339,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30">
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2367,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="60">
+    <row r="12" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2395,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2423,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="60">
+    <row r="14" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2451,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="60">
+    <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2479,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2517,7 +2501,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2539,7 +2523,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2561,7 +2545,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2583,7 +2567,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2605,7 +2589,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2627,7 +2611,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2649,7 +2633,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2671,7 +2655,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2693,7 +2677,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2715,37 +2699,37 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -2755,14 +2739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -2770,7 +2754,7 @@
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2789,7 +2773,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:32" ht="30.75" customHeight="1">
+    <row r="2" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2827,7 +2811,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:32" ht="41.25" customHeight="1">
+    <row r="3" spans="1:32" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2849,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="42" customHeight="1">
+    <row r="4" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +2889,7 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:32" ht="49.5" customHeight="1">
+    <row r="5" spans="1:32" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2945,7 +2929,7 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:32" ht="32.25" customHeight="1">
+    <row r="6" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +2969,7 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="38.25" customHeight="1">
+    <row r="7" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3027,7 +3011,7 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="1:32" ht="31.5" customHeight="1">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3067,7 +3051,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:32" ht="21" customHeight="1">
+    <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3107,7 +3091,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" ht="33" customHeight="1">
+    <row r="10" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3133,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3173,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:32" ht="39.75" customHeight="1">
+    <row r="12" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3231,7 +3215,7 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="1:32" ht="37.5" customHeight="1">
+    <row r="13" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3269,7 +3253,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="48.75" customHeight="1">
+    <row r="14" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3307,7 +3291,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="36" customHeight="1">
+    <row r="15" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3345,7 +3329,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3374,7 +3358,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="4:30">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3403,7 +3387,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="4:30">
+    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3432,7 +3416,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="4:30">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3461,7 +3445,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="4:30">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3490,7 +3474,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="4:30">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3519,7 +3503,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="4:30">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3555,14 +3539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -3572,7 +3556,7 @@
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1">
+    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +3590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1">
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3617,7 +3601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +3612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3642,7 +3626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3653,7 +3637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3664,7 +3648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3697,7 +3681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3708,7 +3692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3719,7 +3703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3730,7 +3714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3768,14 +3752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -3783,12 +3767,12 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="240">
+    <row r="2" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
         <v>78</v>
@@ -3807,7 +3791,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
         <v>79</v>
@@ -3826,7 +3810,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>80</v>
@@ -3845,7 +3829,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>81</v>
@@ -3864,7 +3848,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
         <v>82</v>
@@ -3883,13 +3867,13 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A8" s="43">
+    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
         <v>41841</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3902,8 +3886,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
@@ -3914,27 +3898,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="44">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
         <v>41842</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>96</v>
       </c>
@@ -3942,17 +3926,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>99</v>
       </c>
@@ -3963,7 +3947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>101</v>
       </c>
@@ -3974,13 +3958,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="44">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
         <v>41847</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -3988,16 +3972,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60">
-      <c r="A22" s="44">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
         <v>41848</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4018,20 +4002,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="91.140625" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
@@ -4039,7 +4023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="18.75" customHeight="1">
+    <row r="3" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>106</v>
       </c>
@@ -4047,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="26.25" customHeight="1">
+    <row r="4" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>107</v>
       </c>
@@ -4055,7 +4039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="26.25" customHeight="1">
+    <row r="5" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>108</v>
       </c>
@@ -4063,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.25" customHeight="1">
+    <row r="6" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>109</v>
       </c>
@@ -4071,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="22.5" customHeight="1">
+    <row r="7" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>110</v>
       </c>
@@ -4079,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30.75" customHeight="1">
+    <row r="8" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>111</v>
       </c>
@@ -4087,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="24.75" customHeight="1">
+    <row r="9" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>112</v>
       </c>
@@ -4095,27 +4079,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="35.25" hidden="1" customHeight="1">
+    <row r="10" spans="2:3" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="23.25" hidden="1" customHeight="1">
+    <row r="11" spans="2:3" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="26.25" hidden="1" customHeight="1">
+    <row r="12" spans="2:3" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:3" hidden="1">
+    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>117</v>
       </c>
@@ -4123,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="19.5" customHeight="1">
+    <row r="15" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>118</v>
       </c>
@@ -4131,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="21.75" customHeight="1">
+    <row r="16" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>119</v>
       </c>
@@ -4139,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28.5" customHeight="1">
+    <row r="17" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>120</v>
       </c>
@@ -4147,32 +4131,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="16.5" hidden="1" customHeight="1">
+    <row r="18" spans="2:3" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="16.5" hidden="1" customHeight="1">
+    <row r="19" spans="2:3" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="26.25" hidden="1" customHeight="1">
+    <row r="20" spans="2:3" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="22.5" hidden="1" customHeight="1">
+    <row r="21" spans="2:3" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:3" hidden="1">
+    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="42.75" customHeight="1">
+    <row r="23" spans="2:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>126</v>
       </c>
@@ -4180,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="39" customHeight="1">
+    <row r="24" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>127</v>
       </c>
@@ -4188,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="21" customHeight="1">
+    <row r="25" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>128</v>
       </c>
@@ -4196,17 +4180,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" hidden="1" customHeight="1">
+    <row r="26" spans="2:3" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:3" hidden="1">
+    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>131</v>
       </c>
@@ -4214,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="27.75" customHeight="1">
+    <row r="29" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>132</v>
       </c>
@@ -4222,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="27" customHeight="1">
+    <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>133</v>
       </c>
@@ -4230,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="20.25" customHeight="1">
+    <row r="31" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>134</v>
       </c>
@@ -4238,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="23.25" customHeight="1">
+    <row r="32" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>135</v>
       </c>
@@ -4246,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="29.25" customHeight="1">
+    <row r="33" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>136</v>
       </c>
@@ -4254,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="24.75" customHeight="1">
+    <row r="34" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
@@ -4262,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="29.25" customHeight="1">
+    <row r="35" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>138</v>
       </c>
@@ -4270,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30" customHeight="1">
+    <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
@@ -4278,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22.5" customHeight="1">
+    <row r="37" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>140</v>
       </c>
@@ -4286,7 +4270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="30" customHeight="1">
+    <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>141</v>
       </c>
@@ -4294,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>144</v>
       </c>
@@ -4302,7 +4286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>145</v>
       </c>
@@ -4310,7 +4294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>146</v>
       </c>
@@ -4318,7 +4302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>147</v>
       </c>
@@ -4326,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>148</v>
       </c>
@@ -4334,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>149</v>
       </c>
@@ -4342,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>150</v>
       </c>
@@ -4350,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>151</v>
       </c>
@@ -4358,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>152</v>
       </c>
@@ -4366,7 +4350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>153</v>
       </c>
@@ -4374,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
     </row>
   </sheetData>
@@ -4422,15 +4406,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -4438,11 +4422,11 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
@@ -4468,97 +4452,97 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="42"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="45"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>168</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>193</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
+        <v>207</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="30"/>
       <c r="D7" s="32"/>
       <c r="E7" s="46"/>
@@ -4566,11 +4550,11 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4580,15 +4564,19 @@
         <v>174</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>216</v>
+      </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="29" t="s">
         <v>171</v>
       </c>
@@ -4598,11 +4586,13 @@
       <c r="E9" s="45"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="35" t="s">
         <v>172</v>
       </c>
@@ -4610,17 +4600,17 @@
         <v>175</v>
       </c>
       <c r="E10" s="45"/>
-      <c r="F10" s="38" t="s">
-        <v>208</v>
+      <c r="F10" s="50" t="s">
+        <v>221</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="H10" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="35" t="s">
         <v>173</v>
       </c>
@@ -4632,11 +4622,11 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -4650,11 +4640,13 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1">
+      <c r="H12" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="34" t="s">
         <v>179</v>
       </c>
@@ -4662,13 +4654,17 @@
         <v>180</v>
       </c>
       <c r="E13" s="46"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="46"/>
@@ -4676,11 +4672,11 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -4694,11 +4690,13 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="H15" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="36" t="s">
         <v>183</v>
       </c>
@@ -4710,7 +4708,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>191</v>
       </c>
@@ -4728,16 +4726,18 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="25" customFormat="1">
+      <c r="H17" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1">
+    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -4745,10 +4745,10 @@
         <v>192</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>200</v>
       </c>
@@ -4771,15 +4771,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>214</v>
+      <c r="B21" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>202</v>
@@ -4789,33 +4789,27 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -4826,7 +4820,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -4837,7 +4831,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -4848,7 +4842,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -4859,7 +4853,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="25" customFormat="1">
+    <row r="27" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -4868,6 +4862,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4880,11 +4879,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4892,12 +4886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
